--- a/2025-03-03_o3-mini_feedback_sheets/overall_gen/CREST syndrome with Type 2 Achalasia_gen_overall.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/overall_gen/CREST syndrome with Type 2 Achalasia_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gradual onset and progressive worsening of dysphagia over months</t>
+          <t>A long-standing history of progressive dysphagia accompanied by regurgitation of undigested food.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This gradual progression is consistent with the esophageal dysmotility seen in CREST syndrome and Type 2 Achalasia rather than an acute process.</t>
+          <t>This finding is highly supportive as progressive dysphagia is common in esophageal dysmotility disorders, including Type 2 Achalasia, and is frequently seen in patients with CREST syndrome who develop esophageal involvement.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acute onset of dysphagia following a viral illness</t>
+          <t>Lack of any history of digital color changes or vasospastic events.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>An acute onset following an infection is more characteristic of an infectious or post-infectious process and does not align with the chronic course typically seen in CREST syndrome.</t>
+          <t>The absence of Raynaud's phenomenon, a highly specific and sensitive feature of CREST syndrome, weighs against the diagnosis despite the presence of achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud phenomenon episodes in the fingers</t>
+          <t>Reports of achy chest discomfort and cough that worsen with meals.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud phenomenon is a hallmark of CREST syndrome and supports the diagnosis when coupled with esophageal motility issues.</t>
+          <t>These symptoms are consistent with esophageal motor dysfunction seen in Type 2 Achalasia, strengthening the association with CREST syndrome where esophageal dysmotility is a hallmark.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dysphagia that is intermittent and resolves spontaneously without progression</t>
+          <t>No mention of skin tightening or thickening on the fingers over time.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Intermittent dysphagia that improves without intervention is less indicative of the progressive esophageal involvement seen in CREST syndrome with Type 2 Achalasia.</t>
+          <t>The absence of sclerodactyly, which is a key component of CREST syndrome, reduces the likelihood of the diagnosis significantly.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Reports of thickening and tightening of skin on the hands (sclerodactyly)</t>
+          <t>Patient describes phenomena consistent with Raynaud's episodes, with color changes in fingers on cold exposure.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a key feature of CREST syndrome, adding specificity to the syndrome's clinical picture.</t>
+          <t>Raynaud's phenomenon is one of the components of CREST syndrome and has a high specificity when present, lending strong support for the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lack of any history of skin changes, specifically no tightening or thickening of the skin on the hands</t>
+          <t>Patient denies any history of calcinosis, such as palpable subcutaneous calcific deposits.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of sclerodactyly greatly reduces the likelihood of CREST syndrome, as skin involvement is a central feature.</t>
+          <t>The absence of calcinosis, though not as sensitive, still detracts from a full spectrum presentation of CREST syndrome, thereby arguing against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Patient mentions small, painful tender nodules on fingertips suggesting calcinosis</t>
+          <t>History of thickened, tight skin on the fingers (suggesting sclerodactyly).</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calcinosis, the deposition of calcium, is one of the classic features of CREST syndrome and increases the likelihood of the syndrome being present.</t>
+          <t>Sclerodactyly is a classic component of CREST syndrome, and when present in the history, it significantly increases the likelihood of a CREST diagnosis with associated esophageal dysmotility.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No episodes of Raynaud phenomenon reported</t>
+          <t>No reports of telangiectasias on the face or hands.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Without Raynaud phenomenon, one of the primary vascular features of CREST syndrome is missing, lowering the overall clinical suspicion for the syndrome.</t>
+          <t>Lack of telangiectasia, another highly specific qualitative marker of CREST syndrome, weakens the supporting evidence for CREST-related Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Experience of telangiectasias observed on the face or hands</t>
+          <t>Episodes of small, visible dilated blood vessels on the face and hands (telangiectasias).</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Telangiectasias are a specific and distinguishing sign of CREST syndrome, supporting its diagnosis when esophageal symptoms are concurrently present.</t>
+          <t>Telangiectasia is a highly specific sign in CREST syndrome and its presence in the history further supports the diagnosis alongside esophageal motility issues characteristic of Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of other systemic features such as calcinosis or telangiectasia</t>
+          <t>The history is more consistent with primary gastroesophageal reflux disease (GERD) rather than a progressive motility disorder.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The complete absence of other CREST features makes the diagnosis of CREST syndrome with concurrent Type 2 Achalasia far less likely.</t>
+          <t>A history suggestive of GERD without progressive dysphagia or regurgitation typical of achalasia makes the scenario less supportive of CREST syndrome with esophageal dysmotility.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Past Medical History documenting Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's is a hallmark feature of CREST syndrome and its presence greatly increases the likelihood of the diagnosis, given its high specificity.</t>
+          <t>Raynaud's phenomenon is one of the hallmark features of CREST syndrome and its frequent occurrence in these patients makes it a highly specific supporting evidence even when considered within a hist category.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of any history of Raynaud's phenomenon</t>
+          <t>Past Medical History with isolated gastroesophageal reflux disease (GERD) without any mention of connective tissue disease signs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Without Raynaud's phenomenon, a key clinical feature of CREST syndrome, the likelihood of the diagnosis is markedly reduced.</t>
+          <t>GERD alone is common in the general population and does not specifically support CREST syndrome, reducing the likelihood ratio when no other systemic features are present.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly (thickening and tightening of the skin on the fingers)</t>
+          <t>History of sclerodactyly</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a classic finding in CREST syndrome with high specificity, supporting the diagnosis strongly.</t>
+          <t>Sclerodactyly, or skin thickening of the fingers, is a core component of CREST syndrome. Its presence strongly supports the diagnosis as it is rarely seen outside connective tissue disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No documented history of sclerodactyly or skin tightening</t>
+          <t>Absence of documented Raynaud's phenomenon in the patient’s history</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of sclerodactyly lowers the likelihood of CREST syndrome, as it is one of its defining features.</t>
+          <t>Without Raynaud's phenomenon, one of the most sensitive and specific indicators of CREST syndrome is missing, strongly arguing against the full diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of calcinosis cutis (calcium deposits in the skin)</t>
+          <t>Past Medical History noting calcinosis cutis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calcinosis is a specific component of CREST which, when present, strongly suggests the syndrome.</t>
+          <t>Calcinosis (calcium deposits in the skin) is a specific finding within CREST syndrome that, when present, increases the likelihood ratio favoring the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lack of a prior diagnosis or treatment for calcinosis cutis</t>
+          <t>No history of sclerodactyly or other skin changes typical of systemic sclerosis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Calcinosis is a specific marker for CREST syndrome; its absence is a strong counter-indicator when considering the entire clinical picture.</t>
+          <t>The absence of sclerodactyly, a key diagnostic marker of CREST syndrome, diminishes the specificity required to support the condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of telangiectasias (small dilated blood vessels near the surface of the skin)</t>
+          <t>Documentation of telangiectasias</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Telangiectasias are characteristic of CREST syndrome, thereby lending strong support to the diagnosis with high specificity.</t>
+          <t>Telangiectasias are a classic feature of CREST syndrome. Their documentation provides strong, specific evidence in favor of the disease when observed in the patient's history.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No prior history of telangiectasia noted in medical records</t>
+          <t>Lack of previous surgical or therapeutic interventions for esophageal dysmotility</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Without telangiectasia, one of the five critical components of CREST syndrome, the diagnosis becomes less likely.</t>
+          <t>If there is no history of treatment addressing esophageal dysmotility, then the presence of Type 2 Achalasia becomes less likely, arguing against its role in a CREST syndrome diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Previous diagnosis of esophageal dysmotility treated with motility agents or interventions</t>
+          <t>Past Medical History of esophageal dysmotility management, such as prior pneumatic dilation or pharmacologic therapy for Achalasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Evidence of esophageal dysmotility, especially when managed as part of a connective tissue disease workup, supports the possibility of Type 2 Achalasia within the context of CREST syndrome.</t>
+          <t>The treatment history for esophageal dysmotility correlates with Type 2 Achalasia, a key component of the diagnosis. This suggests symptom management reflective of the disease process.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prior negative work-up for esophageal dysmotility and associated motility disorders</t>
+          <t>Past Medical History free from other connective tissue disease indicators (e.g., no calcinosis or telangiectasias)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A negative history or work-up regarding esophageal dysmotility, particularly in a context not associated with connective tissue disorders, decreases the likelihood of Type 2 Achalasia in CREST syndrome.</t>
+          <t>The complete absence of additional CREST-related features further lowers the pre-test probability for the syndrome, serving as strong evidence against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A positive family history of autoimmune conditions, particularly systemic sclerosis or CREST syndrome in first-degree relatives.</t>
+          <t>Positive family history of autoimmune disorders</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autoimmune diseases such as CREST syndrome tend to have a genetic predisposition, so a family history increases the likelihood of the diagnosis.</t>
+          <t>A family history of autoimmune diseases increases the pre-test probability for CREST syndrome, making an autoimmune connective tissue process (including CREST with associated esophageal dysmotility) more likely.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A strong family history free of autoimmune or connective tissue disorders.</t>
+          <t>Absence of a family history of autoimmune diseases or connective tissue disorders</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a familial predisposition to autoimmune conditions reduces the likelihood of CREST syndrome, which has notable genetic associations.</t>
+          <t>A negative family history reduces the probability of an inherited autoimmune process, making CREST syndrome less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A family history of connective tissue disorders or scleroderma.</t>
+          <t>Family history of scleroderma or CREST syndrome</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Since CREST syndrome is a subset of scleroderma, the presence of related connective tissue disorders in close family suggests a higher risk for developing it.</t>
+          <t>Scleroderma and its variants, including CREST syndrome, have genetic predispositions; the presence of affected family members is a supportive finding.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No reported family history of gastrointestinal motility disorders including achalasia.</t>
+          <t>Family history predominantly indicates gastrointestinal disorders of non-autoimmune origin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Since Type 2 Achalasia is part of the combined diagnosis, the absence of familial trends in similar esophageal motility issues argues against the diagnosis.</t>
+          <t>If familial gastrointestinal issues are present but without accompanying autoimmune or connective tissue pathology, this lowers the suspicion for CREST syndrome–related esophageal dysmotility.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A personal history indicating that other autoimmune conditions run in the family.</t>
+          <t>Family history of esophageal dysmotility or unexplained gastrointestinal motility issues</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The co-occurrence of autoimmune disorders in the family context is supportive, as patients with one type of autoimmune disease are at increased risk for others, including CREST.</t>
+          <t>Given that Type 2 Achalasia presents with esophageal motility problems, a family history indicating similar gastrointestinal dysmotility supports a genetic predisposition to disorders affecting the esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A social history with no known exposure to environmental risk factors related to autoimmune disease triggers.</t>
+          <t>Social environment with known exposure to environmental factors linked to more common causes of esophageal dysmotility (e.g., lifestyle-related gastroesophageal reflux)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of exposure to known environmental contributors (such as silica dust) diminishes the likelihood of developing autoimmune conditions like CREST syndrome.</t>
+          <t>Lifestyle factors that contribute to esophageal motility disorders other than autoimmune conditions (like reflux disease) argue against a diagnosis of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Residence in or origin from an area with documented higher incidence of autoimmune disorders.</t>
+          <t>Personal background indicating early-onset Raynaud phenomenon (in family context)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Epidemiological data sometimes links geographic clusters with increased autoimmune prevalence, which can support the diagnosis when aligned with other findings.</t>
+          <t>Raynaud phenomenon is a common and early feature of CREST syndrome; a familial tendency towards this phenomenon indirectly supports the likelihood of an underlying connective tissue disorder including CREST.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Social and family history consistent with lifestyles that generally have a lower risk for autoimmune diseases (e.g., non-smoker, minimal occupational chemical exposures).</t>
+          <t>Lack of any family history of Raynaud phenomenon or scleroderma</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Protective social and environmental factors could lower the risk for autoimmune activation, thus making the presence of CREST syndrome with Type 2 Achalasia less likely.</t>
+          <t>The absence of classical features such as Raynaud phenomenon or scleroderma in the family decreases the likelihood of a familial, autoimmune variant like CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Exposure to environmental factors in the workplace or community (e.g., silica dust) known to trigger autoimmune responses.</t>
+          <t>Ethnic background with reported increased prevalence of autoimmune connective tissue disorders</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certain environmental exposures have been associated with the development of autoimmune conditions like scleroderma, indirectly supporting the CREST syndrome diagnosis when present alongside compatible clinical features like Type 2 Achalasia.</t>
+          <t>Some ethnic groups have a higher predisposition to autoimmune conditions; belonging to such groups bolsters the relative likelihood of developing CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A stable family and social history without any occurrence of autoimmune or connective tissue diseases over multiple generations.</t>
+          <t>Social history indicating robust overall health with minimal exposure to stressors linked to autoimmune triggers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A long-term pattern of no autoimmune or connective tissue disorders in the family strongly argues against a genetic predisposition to CREST syndrome.</t>
+          <t>A social history marked by low exposure to potential autoimmune triggers and a generally healthy family background argues against the development of a systemic autoimmune condition such as CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin thickening and tightening on the hands (sclerodactyly)</t>
+          <t>Skin thickening of the fingers and face.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is highly specific, indicating skin fibrosis which is rarely present without the disorder.</t>
+          <t>This is a classic sign of sclerodactyly found in CREST syndrome and supports exposure to systemic sclerosis features including esophageal dysmotility seen in Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal skin texture and pliability without thickening</t>
+          <t>Normal skin texture without evidence of thickening or tightening.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of skin thickening is strong evidence against CREST syndrome, as sclerodactyly is a central feature of the diagnosis.</t>
+          <t>Lack of skin thickening makes the diagnosis of scleroderma-related CREST syndrome less likely, as skin involvement is a hallmark of the condition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on the face and hands</t>
+          <t>Presence of telangiectasias on the face and nailfolds.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are common in CREST syndrome, providing specific evidence of vascular involvement consistent with the diagnosis.</t>
+          <t>Telangiectasias are a defining feature of CREST syndrome and their presence on physical exam helps distinguish the condition with high specificity.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No visible telangiectatic lesions on face or extremities</t>
+          <t>Absence of telangiectasias on the face and nailfolds.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of telangiectasia decreases the likelihood of CREST syndrome because these vascular changes are relatively specific to the condition.</t>
+          <t>Not detecting telangiectasias decreases the likelihood of CREST syndrome, which typically exhibits these vascular changes.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calcinosis cutis observed at the fingertips</t>
+          <t>Reduced skin elasticity and tight, shiny skin texture.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific demonstration of calcium deposits in the skin, which is a key component of CREST syndrome.</t>
+          <t>The decreased pliability of the skin is indicative of fibrotic changes in systemic sclerosis, supporting the CREST diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of calcinosis on fingertips</t>
+          <t>Intact nailfold capillary structure without dilated or dropout capillaries.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Without calcinosis, one of the key diagnostic components of CREST syndrome is missing, making the diagnosis less probable.</t>
+          <t>An unremarkable nailfold capillary exam is not consistent with systemic sclerosis, reducing the probability of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulseless or diminished radial pulses due to vascular involvement</t>
+          <t>Digital pitting scars and sclerodactyly.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vascular changes, including diminished pulses, support the presence of CREST syndrome-related vascular abnormalities.</t>
+          <t>Digital pitting is often seen in CREST syndrome and points to microvascular damage, reinforcing the presence of systemic sclerosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal vital signs including stable weight and hydration status</t>
+          <t>No evidence of digital pitting, ulceration, or sclerodactyly.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stable weight and hydration diminish the likelihood of significant esophageal dysmotility as seen in Type 2 Achalasia, which often leads to nutritional compromise.</t>
+          <t>The absence of these digital abnormalities argues against the diagnosis of CREST syndrome, a disease known for such vascular and fibrotic changes.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Evidence of weight loss and dehydration on vital signs</t>
+          <t>Observed color changes in the digits consistent with Raynaud's phenomenon upon temperature challenge.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss and signs of dehydration can be associated with the esophageal dysmotility seen in Type 2 Achalasia, lending support to the combined diagnosis.</t>
+          <t>Raynaud's phenomenon is frequently associated with CREST syndrome and, when triggered during exam, offers supportive evidence for the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Preserved peripheral pulses with normal vascular exam</t>
+          <t>Lack of color changes in the digits during cold challenge testing.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal vascular exam without diminished pulses argues against the vascular involvement typically seen in CREST syndrome.</t>
+          <t>The absence of Raynaud's phenomenon on physical exam significantly reduces the likelihood of CREST syndrome, as this is a key diagnostic feature.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow showing a classic 'bird beak' narrowing of the esophagogastric junction</t>
+          <t>High-resolution esophageal manometry showing pan-esophageal pressurization</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This imaging finding is strongly associated with achalasia, and when observed in the context of CREST syndrome, it specifically supports type 2 achalasia.</t>
+          <t>Pan-esophageal pressurization is a hallmark finding in Type II Achalasia and strongly supports the diagnosis when present, as it occurs much more frequently in these patients compared to controls.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal barium swallow study without evidence of distal esophageal narrowing</t>
+          <t>Normal esophageal manometry with preserved peristalsis and normal lower esophageal sphincter relaxation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal barium swallow would be unexpected in patients with achalasia, thereby arguing against a diagnosis of type 2 achalasia in CREST syndrome.</t>
+          <t>A normal manometric study effectively rules out achalasia, including Type II, thereby arguing strongly against CREST syndrome with Type II Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>High-resolution esophageal manometry demonstrating impaired lower esophageal sphincter relaxation with pan-esophageal pressurization</t>
+          <t>Barium swallow demonstrating retained contrast with a smooth tapered narrowing at the gastroesophageal junction (bird-beak appearance)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manometry findings characteristic of type 2 achalasia provide strong diagnostic evidence when combined with CREST syndrome features.</t>
+          <t>The classic 'bird-beak' appearance associated with achalasia, particularly with contrast retention, suggests impaired esophageal emptying, which aligns with Type II Achalasia seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing normal peristalsis and sphincter function</t>
+          <t>Barium swallow demonstrating normal esophageal emptying without a 'bird-beak' deformity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal manometric findings would strongly argue against the presence of achalasia, reducing the likelihood of type 2 achalasia in a CREST context.</t>
+          <t>The absence of a 'bird-beak' narrowing and normal contrast passage on a barium study makes a diagnosis of achalasia unlikely, reducing the likelihood of concurrent CREST syndrome affecting the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive anti-centromere antibodies on serologic testing</t>
+          <t>Positive serum anti-centromere antibodies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of anti-centromere antibodies is highly specific for CREST syndrome, thereby supporting the overall diagnosis when coupled with achalasia features.</t>
+          <t>Anti-centromere antibodies are highly specific for limited cutaneous systemic sclerosis (CREST syndrome) and their presence in combination with achalasia findings provides strong evidence favoring the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negative anti-centromere antibody test on serologic evaluation</t>
+          <t>Negative serum anti-centromere antibody test</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of anti-centromere antibodies diminishes the likelihood of CREST syndrome, thereby weakening support for the related esophageal dysmotility.</t>
+          <t>Since anti-centromere antibodies are closely associated with CREST syndrome, their absence serves as strong evidence against the diagnosis in the appropriate clinical context.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nailfold capillaroscopy showing a scleroderma pattern</t>
+          <t>Esophageal pH monitoring showing minimal acid exposure despite dysphagia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This imaging procedure reveals microvascular changes typical in CREST syndrome, reinforcing the diagnosis when achalasia is also identified.</t>
+          <t>The finding of normal acid exposure in a dysmotile esophagus supports a primary motility disorder (Type II Achalasia) rather than reflux-related changes, helping to differentiate CREST-associated esophageal dysmotility from GERD.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Capillaroscopy without scleroderma pattern changes</t>
+          <t>Normal esophageal pH monitoring indicating typical acid exposure patterns</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of the characteristic scleroderma capillary changes would argue against CREST syndrome and its associated manifestations, including achalasia.</t>
+          <t>A normal pH study without abnormal motility-related reflux changes weakens the evidence for a motility disorder like Type II Achalasia associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Esophageal endoscopic findings of retained saliva and food in a dilated esophagus with tapering at its distal end</t>
+          <t>High-resolution chest CT indicating esophageal dilation with subtle interstitial changes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Endoscopic visualization of esophageal dilation and tapering correlates with achalasia, thereby strongly supporting the type 2 variant within a CREST clinical context.</t>
+          <t>Chest CT findings that demonstrate esophageal dilation alongside interstitial alterations can associate with CREST syndrome-related connective tissue involvement and impaired esophageal function seen in Type II Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Endoscopic evaluation showing normal esophageal lumen without food retention or tapering</t>
+          <t>High-resolution chest CT showing a normal-caliber esophagus with no evidence of dilation or interstitial changes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal endoscopic findings do not support the presence of achalasia, providing strong evidence against type 2 achalasia in a patient suspected of CREST syndrome.</t>
+          <t>A CT scan that reveals a structurally normal esophagus and lacks features of connective tissue involvement would argue strongly against the presence of CREST syndrome with esophageal dysmotility.</t>
         </is>
       </c>
     </row>
